--- a/output/StructureDefinition-eicr-anon-org-tele-addr-name.xlsx
+++ b/output/StructureDefinition-eicr-anon-org-tele-addr-name.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-org-tele-addr-name.xlsx
+++ b/output/StructureDefinition-eicr-anon-org-tele-addr-name.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-org-tele-addr-name.xlsx
+++ b/output/StructureDefinition-eicr-anon-org-tele-addr-name.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-org-tele-addr-name.xlsx
+++ b/output/StructureDefinition-eicr-anon-org-tele-addr-name.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
